--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.918195</v>
+        <v>5.197148666666667</v>
       </c>
       <c r="H2">
-        <v>17.754585</v>
+        <v>15.591446</v>
       </c>
       <c r="I2">
-        <v>0.2395278098354859</v>
+        <v>0.1989563264818589</v>
       </c>
       <c r="J2">
-        <v>0.2548411403336101</v>
+        <v>0.2047960009874482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.890020333333334</v>
+        <v>3.908553</v>
       </c>
       <c r="N2">
-        <v>8.670061</v>
+        <v>11.725659</v>
       </c>
       <c r="O2">
-        <v>0.6127585034662664</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="P2">
-        <v>0.6135777502279138</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="Q2">
-        <v>17.10370388663167</v>
+        <v>20.313331012546</v>
       </c>
       <c r="R2">
-        <v>153.933334979685</v>
+        <v>182.819979112914</v>
       </c>
       <c r="S2">
-        <v>0.1467727022933448</v>
+        <v>0.153759997504595</v>
       </c>
       <c r="T2">
-        <v>0.1563648535514126</v>
+        <v>0.1582730901681195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.918195</v>
+        <v>5.197148666666667</v>
       </c>
       <c r="H3">
-        <v>17.754585</v>
+        <v>15.591446</v>
       </c>
       <c r="I3">
-        <v>0.2395278098354859</v>
+        <v>0.1989563264818589</v>
       </c>
       <c r="J3">
-        <v>0.2548411403336101</v>
+        <v>0.2047960009874482</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.018892</v>
+        <v>1.148883</v>
       </c>
       <c r="N3">
-        <v>0.037784</v>
+        <v>3.446649</v>
       </c>
       <c r="O3">
-        <v>0.004005588996715721</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="P3">
-        <v>0.00267396292997379</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="Q3">
-        <v>0.11180653994</v>
+        <v>5.970915751605999</v>
       </c>
       <c r="R3">
-        <v>0.6708392396399999</v>
+        <v>53.738241764454</v>
       </c>
       <c r="S3">
-        <v>0.0009594499594844382</v>
+        <v>0.04519632897726387</v>
       </c>
       <c r="T3">
-        <v>0.000681435762284322</v>
+        <v>0.04652291081932868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.918195</v>
+        <v>6.676481666666667</v>
       </c>
       <c r="H4">
-        <v>17.754585</v>
+        <v>20.029445</v>
       </c>
       <c r="I4">
-        <v>0.2395278098354859</v>
+        <v>0.2555878908646727</v>
       </c>
       <c r="J4">
-        <v>0.2548411403336101</v>
+        <v>0.2630897889777535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.807497666666667</v>
+        <v>3.908553</v>
       </c>
       <c r="N4">
-        <v>5.422493</v>
+        <v>11.725659</v>
       </c>
       <c r="O4">
-        <v>0.3832359075370179</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="P4">
-        <v>0.3837482868421123</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="Q4">
-        <v>10.69712365337833</v>
+        <v>26.095382447695</v>
       </c>
       <c r="R4">
-        <v>96.274112880405</v>
+        <v>234.858442029255</v>
       </c>
       <c r="S4">
-        <v>0.09179565758265669</v>
+        <v>0.1975267344169633</v>
       </c>
       <c r="T4">
-        <v>0.09779485101991321</v>
+        <v>0.2033244481943746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>20.029445</v>
       </c>
       <c r="I5">
-        <v>0.2702180362464301</v>
+        <v>0.2555878908646727</v>
       </c>
       <c r="J5">
-        <v>0.287493433614434</v>
+        <v>0.2630897889777535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.890020333333334</v>
+        <v>1.148883</v>
       </c>
       <c r="N5">
-        <v>8.670061</v>
+        <v>3.446649</v>
       </c>
       <c r="O5">
-        <v>0.6127585034662664</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="P5">
-        <v>0.6135777502279138</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="Q5">
-        <v>19.29516777179389</v>
+        <v>7.670496286644999</v>
       </c>
       <c r="R5">
-        <v>173.656509946145</v>
+        <v>69.034466579805</v>
       </c>
       <c r="S5">
-        <v>0.1655783994999559</v>
+        <v>0.05806115644770941</v>
       </c>
       <c r="T5">
-        <v>0.1763995742024425</v>
+        <v>0.05976534078337883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.676481666666667</v>
+        <v>6.405148999999999</v>
       </c>
       <c r="H6">
-        <v>20.029445</v>
+        <v>19.215447</v>
       </c>
       <c r="I6">
-        <v>0.2702180362464301</v>
+        <v>0.2452007816867567</v>
       </c>
       <c r="J6">
-        <v>0.287493433614434</v>
+        <v>0.2523978021529406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.018892</v>
+        <v>3.908553</v>
       </c>
       <c r="N6">
-        <v>0.037784</v>
+        <v>11.725659</v>
       </c>
       <c r="O6">
-        <v>0.004005588996715721</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="P6">
-        <v>0.00267396292997379</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="Q6">
-        <v>0.1261320916466667</v>
+        <v>25.034864339397</v>
       </c>
       <c r="R6">
-        <v>0.7567925498799999</v>
+        <v>225.313779054573</v>
       </c>
       <c r="S6">
-        <v>0.001082382392702831</v>
+        <v>0.1894992345655225</v>
       </c>
       <c r="T6">
-        <v>0.0007687467840958773</v>
+        <v>0.1950613288627444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.676481666666667</v>
+        <v>6.405148999999999</v>
       </c>
       <c r="H7">
-        <v>20.029445</v>
+        <v>19.215447</v>
       </c>
       <c r="I7">
-        <v>0.2702180362464301</v>
+        <v>0.2452007816867567</v>
       </c>
       <c r="J7">
-        <v>0.287493433614434</v>
+        <v>0.2523978021529406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.807497666666667</v>
+        <v>1.148883</v>
       </c>
       <c r="N7">
-        <v>5.422493</v>
+        <v>3.446649</v>
       </c>
       <c r="O7">
-        <v>0.3832359075370179</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="P7">
-        <v>0.3837482868421123</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="Q7">
-        <v>12.06772503404278</v>
+        <v>7.358766798566998</v>
       </c>
       <c r="R7">
-        <v>108.609525306385</v>
+        <v>66.22890118710299</v>
       </c>
       <c r="S7">
-        <v>0.1035572543537714</v>
+        <v>0.05570154712123417</v>
       </c>
       <c r="T7">
-        <v>0.1103251126278956</v>
+        <v>0.05733647329019623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.101432</v>
+        <v>2.2345795</v>
       </c>
       <c r="H8">
-        <v>12.304296</v>
+        <v>4.469158999999999</v>
       </c>
       <c r="I8">
-        <v>0.1659977449457439</v>
+        <v>0.08554377737991761</v>
       </c>
       <c r="J8">
-        <v>0.1766102008941509</v>
+        <v>0.05870307930239842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.890020333333334</v>
+        <v>3.908553</v>
       </c>
       <c r="N8">
-        <v>8.670061</v>
+        <v>11.725659</v>
       </c>
       <c r="O8">
-        <v>0.6127585034662664</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="P8">
-        <v>0.6135777502279138</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="Q8">
-        <v>11.853221875784</v>
+        <v>8.733972408463499</v>
       </c>
       <c r="R8">
-        <v>106.678996882056</v>
+        <v>52.403834450781</v>
       </c>
       <c r="S8">
-        <v>0.101716529771729</v>
+        <v>0.06611104672597125</v>
       </c>
       <c r="T8">
-        <v>0.108364089731933</v>
+        <v>0.04536767182355392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.101432</v>
+        <v>2.2345795</v>
       </c>
       <c r="H9">
-        <v>12.304296</v>
+        <v>4.469158999999999</v>
       </c>
       <c r="I9">
-        <v>0.1659977449457439</v>
+        <v>0.08554377737991761</v>
       </c>
       <c r="J9">
-        <v>0.1766102008941509</v>
+        <v>0.05870307930239842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.018892</v>
+        <v>1.148883</v>
       </c>
       <c r="N9">
-        <v>0.037784</v>
+        <v>3.446649</v>
       </c>
       <c r="O9">
-        <v>0.004005588996715721</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="P9">
-        <v>0.00267396292997379</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="Q9">
-        <v>0.077484253344</v>
+        <v>2.567270399698499</v>
       </c>
       <c r="R9">
-        <v>0.464905520064</v>
+        <v>15.403622398191</v>
       </c>
       <c r="S9">
-        <v>0.0006649187406342945</v>
+        <v>0.01943273065394636</v>
       </c>
       <c r="T9">
-        <v>0.0004722491302461834</v>
+        <v>0.0133354074788445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.101432</v>
+        <v>5.608699000000001</v>
       </c>
       <c r="H10">
-        <v>12.304296</v>
+        <v>16.826097</v>
       </c>
       <c r="I10">
-        <v>0.1659977449457439</v>
+        <v>0.2147112235867941</v>
       </c>
       <c r="J10">
-        <v>0.1766102008941509</v>
+        <v>0.2210133285794594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.807497666666667</v>
+        <v>3.908553</v>
       </c>
       <c r="N10">
-        <v>5.422493</v>
+        <v>11.725659</v>
       </c>
       <c r="O10">
-        <v>0.3832359075370179</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="P10">
-        <v>0.3837482868421123</v>
+        <v>0.772832913753135</v>
       </c>
       <c r="Q10">
-        <v>7.413328769992</v>
+        <v>21.921897302547</v>
       </c>
       <c r="R10">
-        <v>66.71995892992801</v>
+        <v>197.297075722923</v>
       </c>
       <c r="S10">
-        <v>0.06361629643338058</v>
+        <v>0.165935900540083</v>
       </c>
       <c r="T10">
-        <v>0.06777386203197168</v>
+        <v>0.1708063747043427</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.454046</v>
+        <v>5.608699000000001</v>
       </c>
       <c r="H11">
-        <v>8.908092</v>
+        <v>16.826097</v>
       </c>
       <c r="I11">
-        <v>0.180269133289205</v>
+        <v>0.2147112235867941</v>
       </c>
       <c r="J11">
-        <v>0.1278626520122385</v>
+        <v>0.2210133285794594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.890020333333334</v>
+        <v>1.148883</v>
       </c>
       <c r="N11">
-        <v>8.670061</v>
+        <v>3.446649</v>
       </c>
       <c r="O11">
-        <v>0.6127585034662664</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="P11">
-        <v>0.6135777502279138</v>
+        <v>0.227167086246865</v>
       </c>
       <c r="Q11">
-        <v>12.872283505602</v>
+        <v>6.443738933217</v>
       </c>
       <c r="R11">
-        <v>77.23370103361201</v>
+        <v>57.993650398953</v>
       </c>
       <c r="S11">
-        <v>0.1104614443354542</v>
+        <v>0.04877532304671118</v>
       </c>
       <c r="T11">
-        <v>0.07845367835984395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4.454046</v>
-      </c>
-      <c r="H12">
-        <v>8.908092</v>
-      </c>
-      <c r="I12">
-        <v>0.180269133289205</v>
-      </c>
-      <c r="J12">
-        <v>0.1278626520122385</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>0.018892</v>
-      </c>
-      <c r="N12">
-        <v>0.037784</v>
-      </c>
-      <c r="O12">
-        <v>0.004005588996715721</v>
-      </c>
-      <c r="P12">
-        <v>0.00267396292997379</v>
-      </c>
-      <c r="Q12">
-        <v>0.084145837032</v>
-      </c>
-      <c r="R12">
-        <v>0.336583348128</v>
-      </c>
-      <c r="S12">
-        <v>0.0007220840567507195</v>
-      </c>
-      <c r="T12">
-        <v>0.0003418999916088645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.454046</v>
-      </c>
-      <c r="H13">
-        <v>8.908092</v>
-      </c>
-      <c r="I13">
-        <v>0.180269133289205</v>
-      </c>
-      <c r="J13">
-        <v>0.1278626520122385</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.807497666666667</v>
-      </c>
-      <c r="N13">
-        <v>5.422493</v>
-      </c>
-      <c r="O13">
-        <v>0.3832359075370179</v>
-      </c>
-      <c r="P13">
-        <v>0.3837482868421123</v>
-      </c>
-      <c r="Q13">
-        <v>8.050677752225999</v>
-      </c>
-      <c r="R13">
-        <v>48.304066513356</v>
-      </c>
-      <c r="S13">
-        <v>0.06908560489700014</v>
-      </c>
-      <c r="T13">
-        <v>0.04906707366078569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.557602666666666</v>
-      </c>
-      <c r="H14">
-        <v>10.672808</v>
-      </c>
-      <c r="I14">
-        <v>0.143987275683135</v>
-      </c>
-      <c r="J14">
-        <v>0.1531925731455664</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.890020333333334</v>
-      </c>
-      <c r="N14">
-        <v>8.670061</v>
-      </c>
-      <c r="O14">
-        <v>0.6127585034662664</v>
-      </c>
-      <c r="P14">
-        <v>0.6135777502279138</v>
-      </c>
-      <c r="Q14">
-        <v>10.28154404458756</v>
-      </c>
-      <c r="R14">
-        <v>92.533896401288</v>
-      </c>
-      <c r="S14">
-        <v>0.0882294275657825</v>
-      </c>
-      <c r="T14">
-        <v>0.09399555438228177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.557602666666666</v>
-      </c>
-      <c r="H15">
-        <v>10.672808</v>
-      </c>
-      <c r="I15">
-        <v>0.143987275683135</v>
-      </c>
-      <c r="J15">
-        <v>0.1531925731455664</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.018892</v>
-      </c>
-      <c r="N15">
-        <v>0.037784</v>
-      </c>
-      <c r="O15">
-        <v>0.004005588996715721</v>
-      </c>
-      <c r="P15">
-        <v>0.00267396292997379</v>
-      </c>
-      <c r="Q15">
-        <v>0.06721022957866667</v>
-      </c>
-      <c r="R15">
-        <v>0.403261377472</v>
-      </c>
-      <c r="S15">
-        <v>0.0005767538471434386</v>
-      </c>
-      <c r="T15">
-        <v>0.000409631261738543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.557602666666666</v>
-      </c>
-      <c r="H16">
-        <v>10.672808</v>
-      </c>
-      <c r="I16">
-        <v>0.143987275683135</v>
-      </c>
-      <c r="J16">
-        <v>0.1531925731455664</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.807497666666667</v>
-      </c>
-      <c r="N16">
-        <v>5.422493</v>
-      </c>
-      <c r="O16">
-        <v>0.3832359075370179</v>
-      </c>
-      <c r="P16">
-        <v>0.3837482868421123</v>
-      </c>
-      <c r="Q16">
-        <v>6.430358518927111</v>
-      </c>
-      <c r="R16">
-        <v>57.873226670344</v>
-      </c>
-      <c r="S16">
-        <v>0.05518109427020901</v>
-      </c>
-      <c r="T16">
-        <v>0.05878738750154609</v>
+        <v>0.05020695387511677</v>
       </c>
     </row>
   </sheetData>
